--- a/backend/pdf_processing/extracted/tables/fileoutpart0.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart0.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>ETE _x000D_</t>
-  </si>
-  <si>
-    <t>Distance _x000D_</t>
-  </si>
-  <si>
-    <t>Avg Wind _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ETE _x000D_0h50m _x000D_</t>
+  </si>
+  <si>
+    <t>Distance _x000D_85NM _x000D_</t>
+  </si>
+  <si>
+    <t>Avg Wind _x000D_8kt head (189°/009) _x000D_</t>
   </si>
   <si>
     <t>ETD _x000D_</t>
@@ -37,67 +37,37 @@
     <t>ELW _x000D_</t>
   </si>
   <si>
-    <t>1h02m _x000D_</t>
-  </si>
-  <si>
-    <t>104NM _x000D_</t>
-  </si>
-  <si>
-    <t>3kt head (326°/005) _x000D_</t>
-  </si>
-  <si>
-    <t>0735Z _x000D_</t>
-  </si>
-  <si>
-    <t>0837Z _x000D_</t>
-  </si>
-  <si>
-    <t>1104 kg _x000D_</t>
-  </si>
-  <si>
-    <t>1079 kg _x000D_</t>
-  </si>
-  <si>
-    <t>Block Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Taxi Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Flight Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Reserve Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Alternate Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Extra Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>Landing Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>26.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>1.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>10.3 g _x000D_</t>
-  </si>
-  <si>
-    <t>8.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>2.7 g _x000D_</t>
-  </si>
-  <si>
-    <t>5.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>15.7 g _x000D_</t>
+    <t>1300Z _x000D_</t>
+  </si>
+  <si>
+    <t>1350Z _x000D_</t>
+  </si>
+  <si>
+    <t>1096 kg _x000D_</t>
+  </si>
+  <si>
+    <t>1074 kg _x000D_</t>
+  </si>
+  <si>
+    <t>Block Fuel _x000D_31.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Taxi Fuel _x000D_1.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Flight Fuel _x000D_9.1 g _x000D_</t>
+  </si>
+  <si>
+    <t>Reserve Fuel _x000D_8.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Alternate Fuel _x000D_7.6 g _x000D_</t>
+  </si>
+  <si>
+    <t>Extra Fuel _x000D_6.3 g _x000D_</t>
+  </si>
+  <si>
+    <t>Landing Fuel _x000D_21.9 g _x000D_</t>
   </si>
 </sst>
 </file>
@@ -150,17 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -168,10 +129,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
@@ -482,11 +440,11 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -495,86 +453,67 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="35" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:7" ht="28" customHeight="1">
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>